--- a/data/Silicon labs internship/2.xlsx
+++ b/data/Silicon labs internship/2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\data\Silicon labs internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\Gender-classification-for-jobs\data\Silicon labs internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E007B9-C18F-4116-9CC3-607853C4B72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70A848A-662D-4FC8-87B0-EDDB45DAA68C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,120 +25,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
-  <si>
-    <t>Candidate Name</t>
-  </si>
-  <si>
-    <t>Reg No</t>
-  </si>
-  <si>
-    <t>Panel</t>
-  </si>
-  <si>
-    <t>Room</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>swapnil Butte</t>
   </si>
   <si>
-    <t>21MVD0021</t>
-  </si>
-  <si>
-    <t>Rahamtulla Mohammad</t>
-  </si>
-  <si>
-    <t>Room 1</t>
-  </si>
-  <si>
     <t>Vikas Chauhan</t>
   </si>
   <si>
-    <t>21MVD1019</t>
-  </si>
-  <si>
     <t>Sandhya Venkatsubramanian</t>
   </si>
   <si>
-    <t>21MVD1066</t>
-  </si>
-  <si>
     <t>Bharat Ratan Pratap</t>
   </si>
   <si>
-    <t>21MVD1003</t>
-  </si>
-  <si>
-    <t>Prathusha Gajula</t>
-  </si>
-  <si>
-    <t>Room 2</t>
-  </si>
-  <si>
     <t>Prabal Kumar Jain</t>
   </si>
   <si>
-    <t>21MVD0064</t>
-  </si>
-  <si>
     <t>rayapudi chandrika</t>
   </si>
   <si>
-    <t>21MVD1023</t>
-  </si>
-  <si>
     <t>Cladien.P</t>
   </si>
   <si>
-    <t>21MVD1086</t>
-  </si>
-  <si>
     <t>sharmin sheikh</t>
   </si>
   <si>
-    <t>21mvd1004</t>
-  </si>
-  <si>
-    <t>Vasudha Yangareddy</t>
-  </si>
-  <si>
-    <t>Room 3</t>
-  </si>
-  <si>
     <t>Kajal</t>
   </si>
   <si>
-    <t>21MVD0119</t>
-  </si>
-  <si>
     <t>GOKULNATH D</t>
   </si>
   <si>
-    <t>21MVD1037</t>
-  </si>
-  <si>
     <t>Gottam venkata Rakesh Reddy</t>
   </si>
   <si>
-    <t>21mvd7003</t>
-  </si>
-  <si>
-    <t>Kishore Yendodu</t>
-  </si>
-  <si>
-    <t>Room 4</t>
-  </si>
-  <si>
     <t>Taha Perwaiz</t>
   </si>
   <si>
-    <t>21MVD0131</t>
-  </si>
-  <si>
     <t>Tanvi Madare</t>
-  </si>
-  <si>
-    <t>21MVD1040 </t>
   </si>
 </sst>
 </file>
@@ -174,40 +99,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -223,33 +120,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -532,208 +409,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="4" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="5" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="6" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="7" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4" t="s">
+    </row>
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+    </row>
+    <row r="10" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="4" t="s">
+    </row>
+    <row r="12" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
